--- a/output/ejecucion_2/results/base0_ci_results_training.xlsx
+++ b/output/ejecucion_2/results/base0_ci_results_training.xlsx
@@ -468,34 +468,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.972</v>
+        <v>0.975</v>
       </c>
       <c r="C2">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="D2">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="E2">
-        <v>0.931</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="F2">
-        <v>0.455</v>
+        <v>0.481</v>
       </c>
       <c r="G2">
-        <v>0.213</v>
+        <v>0.281</v>
       </c>
       <c r="H2">
-        <v>0.29</v>
+        <v>0.355</v>
       </c>
       <c r="I2">
-        <v>0.755</v>
+        <v>0.725</v>
       </c>
       <c r="J2">
-        <v>0.905</v>
+        <v>0.862</v>
       </c>
       <c r="K2">
-        <v>0.823</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,34 +503,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.731</v>
+        <v>0.709</v>
       </c>
       <c r="C3">
-        <v>0.695</v>
+        <v>0.681</v>
       </c>
       <c r="D3">
-        <v>0.825</v>
+        <v>0.801</v>
       </c>
       <c r="E3">
-        <v>0.26</v>
+        <v>0.272</v>
       </c>
       <c r="F3">
-        <v>0.507</v>
+        <v>0.547</v>
       </c>
       <c r="G3">
-        <v>0.362</v>
+        <v>0.393</v>
       </c>
       <c r="H3">
-        <v>0.422</v>
+        <v>0.458</v>
       </c>
       <c r="I3">
-        <v>0.785</v>
+        <v>0.756</v>
       </c>
       <c r="J3">
-        <v>0.869</v>
+        <v>0.852</v>
       </c>
       <c r="K3">
-        <v>0.825</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,34 +538,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.9360000000000001</v>
+        <v>0.929</v>
       </c>
       <c r="C4">
-        <v>0.981</v>
+        <v>0.982</v>
       </c>
       <c r="D4">
-        <v>0.956</v>
+        <v>0.949</v>
       </c>
       <c r="E4">
-        <v>0.844</v>
+        <v>0.833</v>
       </c>
       <c r="F4">
-        <v>0.514</v>
+        <v>0.541</v>
       </c>
       <c r="G4">
-        <v>0.383</v>
+        <v>0.371</v>
       </c>
       <c r="H4">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="I4">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="J4">
-        <v>0.865</v>
+        <v>0.857</v>
       </c>
       <c r="K4">
-        <v>0.826</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,34 +573,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.972</v>
+        <v>0.975</v>
       </c>
       <c r="C5">
-        <v>0.996</v>
+        <v>0.997</v>
       </c>
       <c r="D5">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="E5">
-        <v>0.9340000000000001</v>
+        <v>0.945</v>
       </c>
       <c r="F5">
-        <v>0.552</v>
+        <v>0.507</v>
       </c>
       <c r="G5">
-        <v>0.34</v>
+        <v>0.382</v>
       </c>
       <c r="H5">
-        <v>0.421</v>
+        <v>0.436</v>
       </c>
       <c r="I5">
-        <v>0.785</v>
+        <v>0.748</v>
       </c>
       <c r="J5">
-        <v>0.897</v>
+        <v>0.832</v>
       </c>
       <c r="K5">
-        <v>0.837</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -608,34 +608,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.956</v>
+        <v>0.975</v>
       </c>
       <c r="C6">
-        <v>0.995</v>
+        <v>0.999</v>
       </c>
       <c r="D6">
-        <v>0.97</v>
+        <v>0.982</v>
       </c>
       <c r="E6">
-        <v>0.89</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="F6">
-        <v>0.46</v>
+        <v>0.468</v>
       </c>
       <c r="G6">
-        <v>0.245</v>
+        <v>0.326</v>
       </c>
       <c r="H6">
-        <v>0.319</v>
+        <v>0.384</v>
       </c>
       <c r="I6">
-        <v>0.76</v>
+        <v>0.731</v>
       </c>
       <c r="J6">
-        <v>0.893</v>
+        <v>0.832</v>
       </c>
       <c r="K6">
-        <v>0.821</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,25 +652,25 @@
         <v>0.98</v>
       </c>
       <c r="E7">
-        <v>0.9320000000000001</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F7">
-        <v>0.452</v>
+        <v>0.493</v>
       </c>
       <c r="G7">
-        <v>0.298</v>
+        <v>0.382</v>
       </c>
       <c r="H7">
-        <v>0.359</v>
+        <v>0.43</v>
       </c>
       <c r="I7">
-        <v>0.768</v>
+        <v>0.745</v>
       </c>
       <c r="J7">
-        <v>0.865</v>
+        <v>0.821</v>
       </c>
       <c r="K7">
-        <v>0.8129999999999999</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -678,34 +678,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9330000000000001</v>
+        <v>0.929</v>
       </c>
       <c r="C8">
-        <v>0.975</v>
+        <v>0.977</v>
       </c>
       <c r="D8">
-        <v>0.954</v>
+        <v>0.949</v>
       </c>
       <c r="E8">
-        <v>0.834</v>
+        <v>0.833</v>
       </c>
       <c r="F8">
-        <v>0.439</v>
+        <v>0.41</v>
       </c>
       <c r="G8">
-        <v>0.266</v>
+        <v>0.281</v>
       </c>
       <c r="H8">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="I8">
-        <v>0.761</v>
+        <v>0.714</v>
       </c>
       <c r="J8">
-        <v>0.873</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="K8">
-        <v>0.8129999999999999</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -713,34 +713,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.972</v>
+        <v>0.975</v>
       </c>
       <c r="C9">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="E9">
-        <v>0.9340000000000001</v>
+        <v>0.945</v>
       </c>
       <c r="F9">
-        <v>0.441</v>
+        <v>0.462</v>
       </c>
       <c r="G9">
-        <v>0.319</v>
+        <v>0.404</v>
       </c>
       <c r="H9">
-        <v>0.37</v>
+        <v>0.431</v>
       </c>
       <c r="I9">
-        <v>0.77</v>
+        <v>0.744</v>
       </c>
       <c r="J9">
-        <v>0.849</v>
+        <v>0.786</v>
       </c>
       <c r="K9">
-        <v>0.8080000000000001</v>
+        <v>0.764</v>
       </c>
     </row>
   </sheetData>
